--- a/y-Manipulated Tables/DataSet/Tables/USER.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/USER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Semester\8\CSE303-DBMS\DataSet\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Final Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5082C86-2983-49F4-9E7A-F58F87997E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99BC7D1-CF68-41A8-8CC1-7ADC178A5EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE(A18,"@gmail.com")</f>
+        <f t="shared" ref="B18:B49" si="2">CONCATENATE(A18,"@gmail.com")</f>
         <v>epa001@gmail.com</v>
       </c>
       <c r="C18" t="str" cm="1">
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="str">
-        <f>CONCATENATE(A19,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa002@gmail.com</v>
       </c>
       <c r="C19" t="str" cm="1">
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE(A20,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa003@gmail.com</v>
       </c>
       <c r="C20" t="str" cm="1">
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE(A21,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa004@gmail.com</v>
       </c>
       <c r="C21" t="str" cm="1">
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="str">
-        <f>CONCATENATE(A22,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa005@gmail.com</v>
       </c>
       <c r="C22" t="str" cm="1">
@@ -1011,7 +1011,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE(A23,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa006@gmail.com</v>
       </c>
       <c r="C23" t="str" cm="1">
@@ -1024,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="str">
-        <f>CONCATENATE(A24,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa007@gmail.com</v>
       </c>
       <c r="C24" t="str" cm="1">
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE(A25,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa008@gmail.com</v>
       </c>
       <c r="C25" t="str" cm="1">
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="str">
-        <f>CONCATENATE(A26,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa009@gmail.com</v>
       </c>
       <c r="C26" t="str" cm="1">
@@ -1063,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="str">
-        <f>CONCATENATE(A27,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa010@gmail.com</v>
       </c>
       <c r="C27" t="str" cm="1">
@@ -1076,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="str">
-        <f>CONCATENATE(A28,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa011@gmail.com</v>
       </c>
       <c r="C28" t="str" cm="1">
@@ -1089,7 +1089,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="str">
-        <f>CONCATENATE(A29,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa012@gmail.com</v>
       </c>
       <c r="C29" t="str" cm="1">
@@ -1102,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="B30" t="str">
-        <f>CONCATENATE(A30,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa013@gmail.com</v>
       </c>
       <c r="C30" t="str" cm="1">
@@ -1115,7 +1115,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="str">
-        <f>CONCATENATE(A31,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa014@gmail.com</v>
       </c>
       <c r="C31" t="str" cm="1">
@@ -1128,7 +1128,7 @@
         <v>59</v>
       </c>
       <c r="B32" t="str">
-        <f>CONCATENATE(A32,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa015@gmail.com</v>
       </c>
       <c r="C32" t="str" cm="1">
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
       <c r="B33" t="str">
-        <f>CONCATENATE(A33,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa016@gmail.com</v>
       </c>
       <c r="C33" t="str" cm="1">
@@ -1154,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="B34" t="str">
-        <f>CONCATENATE(A34,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa017@gmail.com</v>
       </c>
       <c r="C34" t="str" cm="1">
@@ -1167,7 +1167,7 @@
         <v>62</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE(A35,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa018@gmail.com</v>
       </c>
       <c r="C35" t="str" cm="1">
@@ -1180,7 +1180,7 @@
         <v>63</v>
       </c>
       <c r="B36" t="str">
-        <f>CONCATENATE(A36,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa019@gmail.com</v>
       </c>
       <c r="C36" t="str" cm="1">
@@ -1193,7 +1193,7 @@
         <v>64</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE(A37,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa020@gmail.com</v>
       </c>
       <c r="C37" t="str" cm="1">
@@ -1206,7 +1206,7 @@
         <v>65</v>
       </c>
       <c r="B38" t="str">
-        <f>CONCATENATE(A38,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa021@gmail.com</v>
       </c>
       <c r="C38" t="str" cm="1">
@@ -1219,7 +1219,7 @@
         <v>66</v>
       </c>
       <c r="B39" t="str">
-        <f>CONCATENATE(A39,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa022@gmail.com</v>
       </c>
       <c r="C39" t="str" cm="1">
@@ -1232,7 +1232,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="str">
-        <f>CONCATENATE(A40,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa023@gmail.com</v>
       </c>
       <c r="C40" t="str" cm="1">
@@ -1245,7 +1245,7 @@
         <v>68</v>
       </c>
       <c r="B41" t="str">
-        <f>CONCATENATE(A41,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa024@gmail.com</v>
       </c>
       <c r="C41" t="str" cm="1">
@@ -1258,7 +1258,7 @@
         <v>69</v>
       </c>
       <c r="B42" t="str">
-        <f>CONCATENATE(A42,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa025@gmail.com</v>
       </c>
       <c r="C42" t="str" cm="1">
@@ -1271,7 +1271,7 @@
         <v>70</v>
       </c>
       <c r="B43" t="str">
-        <f>CONCATENATE(A43,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa026@gmail.com</v>
       </c>
       <c r="C43" t="str" cm="1">
@@ -1284,7 +1284,7 @@
         <v>71</v>
       </c>
       <c r="B44" t="str">
-        <f>CONCATENATE(A44,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa027@gmail.com</v>
       </c>
       <c r="C44" t="str" cm="1">
@@ -1297,7 +1297,7 @@
         <v>72</v>
       </c>
       <c r="B45" t="str">
-        <f>CONCATENATE(A45,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa028@gmail.com</v>
       </c>
       <c r="C45" t="str" cm="1">
@@ -1310,7 +1310,7 @@
         <v>73</v>
       </c>
       <c r="B46" t="str">
-        <f>CONCATENATE(A46,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa029@gmail.com</v>
       </c>
       <c r="C46" t="str" cm="1">
@@ -1323,7 +1323,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="str">
-        <f>CONCATENATE(A47,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa030@gmail.com</v>
       </c>
       <c r="C47" t="str" cm="1">
@@ -1336,7 +1336,7 @@
         <v>75</v>
       </c>
       <c r="B48" t="str">
-        <f>CONCATENATE(A48,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa031@gmail.com</v>
       </c>
       <c r="C48" t="str" cm="1">
@@ -1349,7 +1349,7 @@
         <v>76</v>
       </c>
       <c r="B49" t="str">
-        <f>CONCATENATE(A49,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>epa032@gmail.com</v>
       </c>
       <c r="C49" t="str" cm="1">
@@ -1362,7 +1362,7 @@
         <v>77</v>
       </c>
       <c r="B50" t="str">
-        <f>CONCATENATE(A50,"@gmail.com")</f>
+        <f t="shared" ref="B50:B77" si="3">CONCATENATE(A50,"@gmail.com")</f>
         <v>epa033@gmail.com</v>
       </c>
       <c r="C50" t="str" cm="1">
@@ -1375,7 +1375,7 @@
         <v>78</v>
       </c>
       <c r="B51" t="str">
-        <f>CONCATENATE(A51,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>epa034@gmail.com</v>
       </c>
       <c r="C51" t="str" cm="1">
@@ -1388,7 +1388,7 @@
         <v>79</v>
       </c>
       <c r="B52" t="str">
-        <f>CONCATENATE(A52,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>epa035@gmail.com</v>
       </c>
       <c r="C52" t="str" cm="1">
@@ -1401,7 +1401,7 @@
         <v>91</v>
       </c>
       <c r="B53" t="str">
-        <f>CONCATENATE(A53,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa001@gmail.com</v>
       </c>
       <c r="C53" t="str" cm="1">
@@ -1414,7 +1414,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="str">
-        <f>CONCATENATE(A54,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa002@gmail.com</v>
       </c>
       <c r="C54" t="str" cm="1">
@@ -1427,7 +1427,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="str">
-        <f>CONCATENATE(A55,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa003@gmail.com</v>
       </c>
       <c r="C55" t="str" cm="1">
@@ -1440,7 +1440,7 @@
         <v>94</v>
       </c>
       <c r="B56" t="str">
-        <f>CONCATENATE(A56,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa004@gmail.com</v>
       </c>
       <c r="C56" t="str" cm="1">
@@ -1453,7 +1453,7 @@
         <v>95</v>
       </c>
       <c r="B57" t="str">
-        <f>CONCATENATE(A57,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa005@gmail.com</v>
       </c>
       <c r="C57" t="str" cm="1">
@@ -1466,7 +1466,7 @@
         <v>96</v>
       </c>
       <c r="B58" t="str">
-        <f>CONCATENATE(A58,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa006@gmail.com</v>
       </c>
       <c r="C58" t="str" cm="1">
@@ -1479,7 +1479,7 @@
         <v>97</v>
       </c>
       <c r="B59" t="str">
-        <f>CONCATENATE(A59,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa007@gmail.com</v>
       </c>
       <c r="C59" t="str" cm="1">
@@ -1492,7 +1492,7 @@
         <v>98</v>
       </c>
       <c r="B60" t="str">
-        <f>CONCATENATE(A60,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa008@gmail.com</v>
       </c>
       <c r="C60" t="str" cm="1">
@@ -1505,7 +1505,7 @@
         <v>99</v>
       </c>
       <c r="B61" t="str">
-        <f>CONCATENATE(A61,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa009@gmail.com</v>
       </c>
       <c r="C61" t="str" cm="1">
@@ -1518,7 +1518,7 @@
         <v>100</v>
       </c>
       <c r="B62" t="str">
-        <f>CONCATENATE(A62,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa010@gmail.com</v>
       </c>
       <c r="C62" t="str" cm="1">
@@ -1531,7 +1531,7 @@
         <v>101</v>
       </c>
       <c r="B63" t="str">
-        <f>CONCATENATE(A63,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa011@gmail.com</v>
       </c>
       <c r="C63" t="str" cm="1">
@@ -1544,7 +1544,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="str">
-        <f>CONCATENATE(A64,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa012@gmail.com</v>
       </c>
       <c r="C64" t="str" cm="1">
@@ -1557,7 +1557,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="str">
-        <f>CONCATENATE(A65,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa013@gmail.com</v>
       </c>
       <c r="C65" t="str" cm="1">
@@ -1570,7 +1570,7 @@
         <v>104</v>
       </c>
       <c r="B66" t="str">
-        <f>CONCATENATE(A66,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa014@gmail.com</v>
       </c>
       <c r="C66" t="str" cm="1">
@@ -1583,7 +1583,7 @@
         <v>105</v>
       </c>
       <c r="B67" t="str">
-        <f>CONCATENATE(A67,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa015@gmail.com</v>
       </c>
       <c r="C67" t="str" cm="1">
@@ -1596,7 +1596,7 @@
         <v>106</v>
       </c>
       <c r="B68" t="str">
-        <f>CONCATENATE(A68,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa016@gmail.com</v>
       </c>
       <c r="C68" t="str" cm="1">
@@ -1609,7 +1609,7 @@
         <v>107</v>
       </c>
       <c r="B69" t="str">
-        <f>CONCATENATE(A69,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa017@gmail.com</v>
       </c>
       <c r="C69" t="str" cm="1">
@@ -1622,7 +1622,7 @@
         <v>108</v>
       </c>
       <c r="B70" t="str">
-        <f>CONCATENATE(A70,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa018@gmail.com</v>
       </c>
       <c r="C70" t="str" cm="1">
@@ -1635,7 +1635,7 @@
         <v>109</v>
       </c>
       <c r="B71" t="str">
-        <f>CONCATENATE(A71,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>pa019@gmail.com</v>
       </c>
       <c r="C71" t="str" cm="1">
@@ -1648,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="B72" t="str">
-        <f>CONCATENATE(A72,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa001@gmail.com</v>
       </c>
       <c r="C72" t="str" cm="1">
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="B73" t="str">
-        <f>CONCATENATE(A73,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa002@gmail.com</v>
       </c>
       <c r="C73" t="str" cm="1">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B74" t="str">
-        <f>CONCATENATE(A74,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa003@gmail.com</v>
       </c>
       <c r="C74" t="str" cm="1">
@@ -1687,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="B75" t="str">
-        <f>CONCATENATE(A75,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa004@gmail.com</v>
       </c>
       <c r="C75" t="str" cm="1">
@@ -1700,7 +1700,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="str">
-        <f>CONCATENATE(A76,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa005@gmail.com</v>
       </c>
       <c r="C76" t="str" cm="1">
@@ -1713,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="str">
-        <f>CONCATENATE(A77,"@gmail.com")</f>
+        <f t="shared" si="3"/>
         <v>iqa006@gmail.com</v>
       </c>
       <c r="C77" t="str" cm="1">
@@ -1726,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" ref="B78:B108" si="2">CONCATENATE(A78,"@gmail.com")</f>
+        <f t="shared" ref="B78:B108" si="4">CONCATENATE(A78,"@gmail.com")</f>
         <v>iqa007@gmail.com</v>
       </c>
       <c r="C78" t="str" cm="1">
@@ -1739,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa008@gmail.com</v>
       </c>
       <c r="C79" t="str" cm="1">
@@ -1752,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa009@gmail.com</v>
       </c>
       <c r="C80" t="str" cm="1">
@@ -1765,7 +1765,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa010@gmail.com</v>
       </c>
       <c r="C81" t="str" cm="1">
@@ -1778,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa011@gmail.com</v>
       </c>
       <c r="C82" t="str" cm="1">
@@ -1791,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa012@gmail.com</v>
       </c>
       <c r="C83" t="str" cm="1">
@@ -1804,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa013@gmail.com</v>
       </c>
       <c r="C84" t="str" cm="1">
@@ -1817,7 +1817,7 @@
         <v>35</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa014@gmail.com</v>
       </c>
       <c r="C85" t="str" cm="1">
@@ -1830,7 +1830,7 @@
         <v>36</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa015@gmail.com</v>
       </c>
       <c r="C86" t="str" cm="1">
@@ -1843,7 +1843,7 @@
         <v>37</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa016@gmail.com</v>
       </c>
       <c r="C87" t="str" cm="1">
@@ -1856,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa017@gmail.com</v>
       </c>
       <c r="C88" t="str" cm="1">
@@ -1869,7 +1869,7 @@
         <v>39</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa018@gmail.com</v>
       </c>
       <c r="C89" t="str" cm="1">
@@ -1882,7 +1882,7 @@
         <v>40</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa019@gmail.com</v>
       </c>
       <c r="C90" t="str" cm="1">
@@ -1895,7 +1895,7 @@
         <v>41</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa020@gmail.com</v>
       </c>
       <c r="C91" t="str" cm="1">
@@ -1908,7 +1908,7 @@
         <v>42</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa021@gmail.com</v>
       </c>
       <c r="C92" t="str" cm="1">
@@ -1921,7 +1921,7 @@
         <v>43</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa022@gmail.com</v>
       </c>
       <c r="C93" t="str" cm="1">
@@ -1934,7 +1934,7 @@
         <v>44</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa023@gmail.com</v>
       </c>
       <c r="C94" t="str" cm="1">
@@ -1947,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa024@gmail.com</v>
       </c>
       <c r="C95" t="str" cm="1">
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa025@gmail.com</v>
       </c>
       <c r="C96" t="str" cm="1">
@@ -1973,7 +1973,7 @@
         <v>47</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa026@gmail.com</v>
       </c>
       <c r="C97" t="str" cm="1">
@@ -1986,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa027@gmail.com</v>
       </c>
       <c r="C98" t="str" cm="1">
@@ -1999,7 +1999,7 @@
         <v>49</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa028@gmail.com</v>
       </c>
       <c r="C99" t="str" cm="1">
@@ -2012,7 +2012,7 @@
         <v>50</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa029@gmail.com</v>
       </c>
       <c r="C100" t="str" cm="1">
@@ -2025,7 +2025,7 @@
         <v>51</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa030@gmail.com</v>
       </c>
       <c r="C101" t="str" cm="1">
@@ -2038,7 +2038,7 @@
         <v>52</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa031@gmail.com</v>
       </c>
       <c r="C102" t="str" cm="1">
@@ -2051,7 +2051,7 @@
         <v>53</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa032@gmail.com</v>
       </c>
       <c r="C103" t="str" cm="1">
@@ -2064,7 +2064,7 @@
         <v>54</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa033@gmail.com</v>
       </c>
       <c r="C104" t="str" cm="1">
@@ -2077,7 +2077,7 @@
         <v>55</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa034@gmail.com</v>
       </c>
       <c r="C105" t="str" cm="1">
@@ -2090,7 +2090,7 @@
         <v>56</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa035@gmail.com</v>
       </c>
       <c r="C106" t="str" cm="1">
@@ -2103,7 +2103,7 @@
         <v>57</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa036@gmail.com</v>
       </c>
       <c r="C107" t="str" cm="1">
@@ -2116,7 +2116,7 @@
         <v>58</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>iqa037@gmail.com</v>
       </c>
       <c r="C108" t="str" cm="1">
